--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
     <t>Time units</t>
   </si>
   <si>
-    <t>s</t>
+    <t>second</t>
   </si>
   <si>
     <t>Database references</t>
@@ -483,7 +483,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -567,13 +567,13 @@
     <t>e</t>
   </si>
   <si>
-    <t>g</t>
+    <t>gram</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>l</t>
+    <t>liter</t>
   </si>
   <si>
     <t>density_c</t>
@@ -2213,7 +2213,7 @@
     <t>dist-init-conc-AD[e]</t>
   </si>
   <si>
-    <t>M</t>
+    <t>molar</t>
   </si>
   <si>
     <t>evidence_001</t>
@@ -2690,7 +2690,7 @@
     <t>AD[e] + H[e] ==&gt; AD[c] + H[c]</t>
   </si>
   <si>
-    <t>s^-1</t>
+    <t>1 / second</t>
   </si>
   <si>
     <t>AK_AMP</t>
@@ -5237,7 +5237,7 @@
     <t>ALA net component</t>
   </si>
   <si>
-    <t>M s^-1</t>
+    <t>molar / second</t>
   </si>
   <si>
     <t>test</t>
@@ -5450,7 +5450,7 @@
     <t>Avogadro</t>
   </si>
   <si>
-    <t>molecule mol^-1</t>
+    <t>molecule / mole</t>
   </si>
   <si>
     <t>carbonExchangeRate</t>
@@ -5459,7 +5459,7 @@
     <t>Carbon-containing metabolite exchange rate</t>
   </si>
   <si>
-    <t>mmol/gDCW/h</t>
+    <t>millimole / gDCW / hour</t>
   </si>
   <si>
     <t>Exchange rate upper bound for carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 5 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 11.2 mmol/gDCW/h for glucose [Ref_0005].</t>
@@ -5471,7 +5471,7 @@
     <t>Cell cycle length</t>
   </si>
   <si>
-    <t>g l^-1</t>
+    <t>gram / liter</t>
   </si>
   <si>
     <t>fractionDryWeight</t>
@@ -5495,7 +5495,7 @@
     <t>k_cat</t>
   </si>
   <si>
-    <t>molecule^-1 s^-1</t>
+    <t>1 / molecule / second</t>
   </si>
   <si>
     <t>k_cat_for_ak</t>
@@ -5813,7 +5813,7 @@
     <t>k_cat_rev_ak</t>
   </si>
   <si>
-    <t>molecule^-2 s^-1</t>
+    <t>1 / molecule  ** 2 / second</t>
   </si>
   <si>
     <t>k_cat_rev_aprt</t>
@@ -6474,9 +6474,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6510,17 +6510,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6533,26 +6537,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6579,15 +6575,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6600,6 +6598,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6607,14 +6620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6628,6 +6635,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -6635,24 +6650,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6673,19 +6673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6697,19 +6697,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6721,67 +6733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6799,7 +6751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6811,13 +6781,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6829,13 +6823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6847,13 +6835,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6867,17 +6867,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6886,7 +6880,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6906,20 +6900,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6939,17 +6945,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6967,140 +6967,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7150,9 +7150,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7559,7 +7556,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -7694,7 +7691,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -12581,7 +12578,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16000,7 +15997,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -16086,7 +16083,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -16184,7 +16181,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16953,11 +16950,11 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -18861,12 +18858,12 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19958,7 +19955,7 @@
     <col min="1" max="1" width="10.3916666666667" style="3"/>
     <col min="2" max="2" width="29.775" style="3"/>
     <col min="3" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="18"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -20012,10 +20009,10 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -20212,7 +20209,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -26663,7 +26660,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="8" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -6557,10 +6557,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6594,53 +6594,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6660,8 +6620,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6682,16 +6675,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6705,6 +6719,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -6712,31 +6734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6757,13 +6757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6775,19 +6793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6799,31 +6805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6835,31 +6817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6877,7 +6841,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6889,49 +6931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6951,21 +6951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6975,17 +6960,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7001,17 +6982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7034,8 +7004,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7043,144 +7013,174 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19927,12 +19927,12 @@
   <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -19992,7 +19992,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="12" activeTab="20"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -5963,7 +5963,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>experimental_evidence</t>
+    <t>experimental_observation</t>
   </si>
   <si>
     <t>Mycoplasma genitalium</t>
@@ -6008,7 +6008,7 @@
     <t>evidence 002</t>
   </si>
   <si>
-    <t>computational_evidence</t>
+    <t>computational_observation</t>
   </si>
   <si>
     <t>Mycoplasma pneumoniae</t>
@@ -6017,7 +6017,7 @@
     <t>Evidence 003</t>
   </si>
   <si>
-    <t>theoretical_evidence</t>
+    <t>theoretical_observation</t>
   </si>
   <si>
     <t>Escherichia coli</t>
@@ -6594,20 +6594,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6621,40 +6610,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6669,7 +6645,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6682,15 +6666,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6704,39 +6720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6757,91 +6757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6853,7 +6769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6871,7 +6793,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6883,7 +6859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6895,7 +6871,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6907,37 +6913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6962,11 +6962,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7001,24 +6999,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7030,6 +7010,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7048,139 +7039,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18587,12 +18587,12 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18877,7 +18877,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19927,7 +19927,7 @@
   <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
+    <sheet name="!_Table of contents" sheetId="23" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Taxon" sheetId="2" r:id="rId3"/>
     <sheet name="Environment" sheetId="19" r:id="rId4"/>
@@ -37,7 +37,7 @@
     <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$U$4</definedName>
@@ -6456,9 +6456,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6525,33 +6525,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6563,7 +6541,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6572,23 +6550,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6609,8 +6578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6623,9 +6600,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6638,15 +6621,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6674,7 +6674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6686,13 +6692,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6704,157 +6848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6865,6 +6865,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6886,17 +6901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6912,32 +6927,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6965,135 +6954,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>

--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="15" activeTab="23"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="23" r:id="rId1"/>
@@ -399,7 +399,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2047">
   <si>
-    <t>!!ObjTables TableType='TableOfContents'</t>
+    <t>!!ObjTables Type='TableOfContents'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -480,7 +480,7 @@
     <t>Changes</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Model'</t>
+    <t>!!ObjTables Type='Date' Id='Model'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -540,7 +540,7 @@
     <t>!Updated</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Taxon'</t>
+    <t>!!ObjTables Type='Date' Id='Taxon'</t>
   </si>
   <si>
     <t>taxon</t>
@@ -558,7 +558,7 @@
     <t>!References</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Environment'</t>
+    <t>!!ObjTables Type='Date' Id='Environment'</t>
   </si>
   <si>
     <t>env</t>
@@ -573,7 +573,7 @@
     <t>degC</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Submodel'</t>
+    <t>!!ObjTables Type='Date' Id='Submodel'</t>
   </si>
   <si>
     <t>!Framework</t>
@@ -609,7 +609,7 @@
     <t>Translation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Compartment'</t>
+    <t>!!ObjTables Type='Date' Id='Compartment'</t>
   </si>
   <si>
     <t>!Initial volume</t>
@@ -704,7 +704,7 @@
     <t>Ref_0002, Ref_0021</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='SpeciesType'</t>
+    <t>!!ObjTables Type='Date' Id='SpeciesType'</t>
   </si>
   <si>
     <t>!Structure</t>
@@ -1595,7 +1595,7 @@
     <t>D-Xylulose 5-phosphate</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Species'</t>
+    <t>!!ObjTables Type='Date' Id='Species'</t>
   </si>
   <si>
     <t>!Species type</t>
@@ -2132,7 +2132,7 @@
     <t>X5P[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='InitialSpeciesConcentration'</t>
+    <t>!!ObjTables Type='Date' Id='InitialSpeciesConcentration'</t>
   </si>
   <si>
     <t>!Species</t>
@@ -2516,7 +2516,7 @@
     <t>dist-init-conc-ValVal[e]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Observable'</t>
+    <t>!!ObjTables Type='Date' Id='Observable'</t>
   </si>
   <si>
     <t>!Expression</t>
@@ -2546,7 +2546,7 @@
     <t>ATP[c] + CTP[c] + GTP[c] + UTP[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Function'</t>
+    <t>!!ObjTables Type='Date' Id='Function'</t>
   </si>
   <si>
     <t>func_1</t>
@@ -2579,7 +2579,7 @@
     <t>e / density_e</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Reaction'</t>
+    <t>!!ObjTables Type='Date' Id='Reaction'</t>
   </si>
   <si>
     <t>!Flux bounds</t>
@@ -4181,7 +4181,7 @@
     <t>ATP[c] + H2O[c] + ValVal[e] ==&gt; ADP[c] + H[c] + Pi[c] + ValVal[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='RateLaw'</t>
+    <t>!!ObjTables Type='Date' Id='RateLaw'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -5114,7 +5114,7 @@
     <t>k_cat_for_val_abc * PeptAbcTransporter_Protein[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjective'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjective'</t>
   </si>
   <si>
     <t>!Reaction rate units</t>
@@ -5129,7 +5129,7 @@
     <t>Metabolism_net_rxn + AdnTransport</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjReaction'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjReaction'</t>
   </si>
   <si>
     <t>!Cell size units</t>
@@ -5153,7 +5153,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='DfbaObjSpecies'</t>
+    <t>!!ObjTables Type='Date' Id='DfbaObjSpecies'</t>
   </si>
   <si>
     <t>!dFBA objective reaction</t>
@@ -5372,7 +5372,7 @@
     <t>dfba-net-species-Other_net_rxn-UMP[c]</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Parameter'</t>
+    <t>!!ObjTables Type='Date' Id='Parameter'</t>
   </si>
   <si>
     <t>!Standard error</t>
@@ -5855,7 +5855,7 @@
     <t>stop_cond_p_2</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='StopCondition'</t>
+    <t>!!ObjTables Type='Date' Id='StopCondition'</t>
   </si>
   <si>
     <t>stop_cond_1</t>
@@ -5870,7 +5870,7 @@
     <t>AXP_c + NTP_c &lt;= stop_cond_p_2</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Observation'</t>
+    <t>!!ObjTables Type='Date' Id='Observation'</t>
   </si>
   <si>
     <t>!Genotype</t>
@@ -5993,7 +5993,7 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='ObservationSet'</t>
+    <t>!!ObjTables Type='Date' Id='ObservationSet'</t>
   </si>
   <si>
     <t>!Observations</t>
@@ -6020,7 +6020,7 @@
     <t>observation set 003</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Conclusion'</t>
+    <t>!!ObjTables Type='Date' Id='Conclusion'</t>
   </si>
   <si>
     <t>!Process</t>
@@ -6059,7 +6059,7 @@
     <t>observation_002(-); observation_003(+, s=10.0, q=30.0)</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Reference'</t>
+    <t>!!ObjTables Type='Date' Id='Reference'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -6494,7 +6494,7 @@
     <t>URL: https://water.usgs.gov/edu/density.html</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Author'</t>
+    <t>!!ObjTables Type='Date' Id='Author'</t>
   </si>
   <si>
     <t>!Last name</t>
@@ -6518,7 +6518,7 @@
     <t>!Address</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Date' ModelId='Change'</t>
+    <t>!!ObjTables Type='Date' Id='Change'</t>
   </si>
   <si>
     <t>!Target</t>
@@ -6547,11 +6547,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6605,38 +6605,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6655,6 +6640,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6663,8 +6662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6686,7 +6686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6700,6 +6700,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -6710,7 +6733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6720,29 +6743,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6767,37 +6767,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6821,13 +6815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6839,7 +6833,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6857,13 +6887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6875,19 +6905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6899,55 +6935,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6961,26 +6961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6996,15 +6987,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7035,16 +7017,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7061,136 +7061,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7963,7 +7963,7 @@
     <col min="4" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="94.5" spans="1:1">
+    <row r="1" ht="81" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>705</v>
       </c>
@@ -8227,7 +8227,7 @@
     <col min="5" max="1027" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>726</v>
       </c>
@@ -13182,7 +13182,7 @@
     <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>1260</v>
       </c>
@@ -16101,7 +16101,7 @@
     <col min="5" max="1028" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:1">
+    <row r="1" ht="27" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>1571</v>
       </c>
@@ -20675,7 +20675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="A1:Q2"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>

--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="23" autoFilterDateGrouping="1" firstSheet="15" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="15" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,359 +36,359 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="1" name="_FilterDatabase_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Model'!$A$2:$B$8</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Taxon'!$A$2:$B$7</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Submodels'!$A$2:$H$6</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Compartments'!$A$3:$U$5</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Species types'!$A$3:$N$146</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Reactions'!$A$3:$N$178</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$A$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Rate laws'!$C$2:$L$169</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">'!Parameters'!$A$19:$F$94</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$14</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_1">'!Parameters'!$A$2:$K$6</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'!References'!$A$2:$R$21</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$2:$C$25</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$2:$B$13</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$2:$H$6</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$3:$U$5</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$3:$N$146</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$C$2:$L$127</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$3:$N$178</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$2:$L$169</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$2:$K$97</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$2:$R$23</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="1">'!Model'!$A$2:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">'!Taxon'!$A$2:$B$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">'!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$A$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'!Parameters'!$A$19:$F$94</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$14</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_1" localSheetId="16">'!Parameters'!$A$2:$K$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">'!References'!$A$2:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$2:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Model'!$A$2:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$2:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$3:$U$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$3:$N$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Initial species concentrations'!$C$2:$L$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$3:$N$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$C$2:$L$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$2:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$2:$R$23</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -397,8 +397,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -907,274 +907,274 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165"/>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf applyAlignment="1" borderId="7" fillId="28" fontId="25" numFmtId="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1185,7 +1185,7 @@
       <sheetName val="#REF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1455,28 +1455,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="24" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="24" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="24" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="24" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="23">
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="23">
       <c r="A2" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='TableOfContents'</t>
+          <t>!!ObjTables type='TableOfContents'</t>
         </is>
       </c>
     </row>
@@ -1753,30 +1753,30 @@
   </sheetData>
   <autoFilter ref="A2:C25"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A3" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A4" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A5" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A6" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A7" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A8" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A9" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A10" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A11" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A12" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A13" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A14" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A15" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A16" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A17" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A18" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A19" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A20" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A22" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A23" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A24" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A25" tooltip="Click to view changes"/>
+    <hyperlink ref="A3" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A4" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A5" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A6" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A7" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A8" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A9" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A10" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A11" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A12" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A13" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A14" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A15" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A16" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A17" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A18" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A19" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A20" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A22" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A23" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A24" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A25" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1789,28 +1789,28 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="4" width="38.5666666666667"/>
-    <col customWidth="1" max="1026" min="4" style="4" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1" max="2"/>
+    <col width="38.5666666666667" customWidth="1" style="4" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="4" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="81" r="1">
+    <row r="1" ht="81" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Observable'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='Observable'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="17" t="inlineStr">
         <is>
           <t>AXP_c</t>
@@ -1879,7 +1879,7 @@
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="17" t="inlineStr">
         <is>
           <t>NDP_c</t>
@@ -1901,7 +1901,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="17" t="inlineStr">
         <is>
           <t>NMP_c</t>
@@ -1923,7 +1923,7 @@
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="17" t="inlineStr">
         <is>
           <t>NTP_c</t>
@@ -1946,8 +1946,8 @@
       <c r="H6" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1968,31 +1968,31 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.5"/>
-    <col customWidth="1" max="2" min="2" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="4" width="25"/>
-    <col customWidth="1" max="4" min="4" style="4" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="8.5" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="2" max="2"/>
+    <col width="25" customWidth="1" style="4" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="81" r="1">
+    <row r="1" ht="81" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Function'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='Function'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>func_1</t>
@@ -2060,7 +2060,7 @@
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>func_2</t>
@@ -2081,7 +2081,7 @@
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>func_3</t>
@@ -2137,8 +2137,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2159,26 +2159,26 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E4" xSplit="1" ySplit="3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:N3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="34.9166666666667"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="4" width="66.2"/>
-    <col customWidth="1" max="1027" min="5" style="4" width="8.78333333333333"/>
+    <col width="34.9166666666667" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="3" max="3"/>
+    <col width="66.2" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="5" max="1027"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Reaction'</t>
+          <t>!!ObjTables type='Date' id='Reaction'</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AdnTransport</t>
@@ -2299,7 +2299,7 @@
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AK_AMP</t>
@@ -2337,7 +2337,7 @@
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AK_GTP</t>
@@ -2375,7 +2375,7 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>AlaAbcTransport</t>
@@ -2413,7 +2413,7 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>APRT</t>
@@ -2451,7 +2451,7 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ArgAbcTransport</t>
@@ -2489,7 +2489,7 @@
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AsnAbcTransport</t>
@@ -2527,7 +2527,7 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>AspAbcTransport</t>
@@ -2565,7 +2565,7 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP</t>
@@ -2603,7 +2603,7 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>CO2Transport</t>
@@ -2641,7 +2641,7 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>CysAbcTransport</t>
@@ -2679,7 +2679,7 @@
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>CytdTransport</t>
@@ -2717,7 +2717,7 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ala</t>
@@ -2755,7 +2755,7 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Arg</t>
@@ -2793,7 +2793,7 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Asn</t>
@@ -2831,7 +2831,7 @@
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Asp</t>
@@ -2869,7 +2869,7 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Cys</t>
@@ -2907,7 +2907,7 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Gln</t>
@@ -2945,7 +2945,7 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Glu</t>
@@ -2983,7 +2983,7 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Gly</t>
@@ -3021,7 +3021,7 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_His</t>
@@ -3059,7 +3059,7 @@
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ile</t>
@@ -3097,7 +3097,7 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Leu</t>
@@ -3135,7 +3135,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Lys</t>
@@ -3173,7 +3173,7 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Met</t>
@@ -3211,7 +3211,7 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Phe</t>
@@ -3249,7 +3249,7 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Pro</t>
@@ -3287,7 +3287,7 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ser</t>
@@ -3325,7 +3325,7 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Thr</t>
@@ -3363,7 +3363,7 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Trp</t>
@@ -3401,7 +3401,7 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Tyr</t>
@@ -3439,7 +3439,7 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Val</t>
@@ -3477,7 +3477,7 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Eno</t>
@@ -3515,7 +3515,7 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP</t>
@@ -3553,7 +3553,7 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GapDH</t>
@@ -3591,7 +3591,7 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GlcPtsTransport</t>
@@ -3629,7 +3629,7 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GlnAbcTransport</t>
@@ -3667,7 +3667,7 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>GluAbcTransport</t>
@@ -3705,7 +3705,7 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GlyAbcTransport</t>
@@ -3743,7 +3743,7 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>GnTransport</t>
@@ -3781,7 +3781,7 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Gpm</t>
@@ -3819,7 +3819,7 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP</t>
@@ -3857,7 +3857,7 @@
       <c r="M45" s="1" t="n"/>
       <c r="N45" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>H2OTransport</t>
@@ -3895,7 +3895,7 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>HisAbcTransport</t>
@@ -3933,7 +3933,7 @@
       <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>HPRT</t>
@@ -3971,7 +3971,7 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>HTransport</t>
@@ -4009,7 +4009,7 @@
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>IleAbcTransport</t>
@@ -4047,7 +4047,7 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>LacTransport</t>
@@ -4085,7 +4085,7 @@
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Ldh</t>
@@ -4123,7 +4123,7 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>LeuAbcTransport</t>
@@ -4161,7 +4161,7 @@
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>LysAbcTransport</t>
@@ -4199,7 +4199,7 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>MetAbcTransport</t>
@@ -4237,7 +4237,7 @@
       <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>NOX</t>
@@ -4275,7 +4275,7 @@
       <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>O2Transport</t>
@@ -4313,7 +4313,7 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Pfk_ATP</t>
@@ -4351,7 +4351,7 @@
       <c r="M58" s="1" t="n"/>
       <c r="N58" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Pfk_GTP</t>
@@ -4389,7 +4389,7 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Pfk_UTP</t>
@@ -4427,7 +4427,7 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Pgi</t>
@@ -4465,7 +4465,7 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP</t>
@@ -4503,7 +4503,7 @@
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP</t>
@@ -4541,7 +4541,7 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>PheAbcTransport</t>
@@ -4579,7 +4579,7 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransport</t>
@@ -4617,7 +4617,7 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Ppa</t>
@@ -4655,7 +4655,7 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>ProAbcTransport</t>
@@ -4693,7 +4693,7 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>PRPS</t>
@@ -4731,7 +4731,7 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Pyk_ATP</t>
@@ -4769,7 +4769,7 @@
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Pyk_CTP</t>
@@ -4807,7 +4807,7 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Pyk_GTP</t>
@@ -4845,7 +4845,7 @@
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>PykUDP</t>
@@ -4883,7 +4883,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk</t>
@@ -4921,7 +4921,7 @@
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt</t>
@@ -4959,7 +4959,7 @@
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk</t>
@@ -4997,7 +4997,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno</t>
@@ -5035,7 +5035,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba</t>
@@ -5073,7 +5073,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap</t>
@@ -5111,7 +5111,7 @@
       <c r="M78" s="1" t="n"/>
       <c r="N78" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk</t>
@@ -5149,7 +5149,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt</t>
@@ -5187,7 +5187,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA</t>
@@ -5225,7 +5225,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh</t>
@@ -5263,7 +5263,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox</t>
@@ -5301,7 +5301,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter</t>
@@ -5339,7 +5339,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk</t>
@@ -5377,7 +5377,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB</t>
@@ -5415,7 +5415,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk</t>
@@ -5453,7 +5453,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm</t>
@@ -5491,7 +5491,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter</t>
@@ -5529,7 +5529,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa</t>
@@ -5567,7 +5567,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs</t>
@@ -5605,7 +5605,7 @@
       <c r="M91" s="1" t="n"/>
       <c r="N91" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts</t>
@@ -5643,7 +5643,7 @@
       <c r="M92" s="1" t="n"/>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk</t>
@@ -5681,7 +5681,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH</t>
@@ -5719,7 +5719,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome</t>
@@ -5757,7 +5757,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase</t>
@@ -5795,7 +5795,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase</t>
@@ -5833,7 +5833,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe</t>
@@ -5871,7 +5871,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim</t>
@@ -5909,7 +5909,7 @@
       <c r="M99" s="1" t="n"/>
       <c r="N99" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB</t>
@@ -5947,7 +5947,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk</t>
@@ -5985,7 +5985,7 @@
       <c r="M101" s="1" t="n"/>
       <c r="N101" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Upp</t>
@@ -6023,7 +6023,7 @@
       <c r="M102" s="1" t="n"/>
       <c r="N102" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Rpe</t>
@@ -6061,7 +6061,7 @@
       <c r="M103" s="1" t="n"/>
       <c r="N103" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>RpiA</t>
@@ -6099,7 +6099,7 @@
       <c r="M104" s="1" t="n"/>
       <c r="N104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>SerAbcTransport</t>
@@ -6137,7 +6137,7 @@
       <c r="M105" s="1" t="n"/>
       <c r="N105" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Tal</t>
@@ -6175,7 +6175,7 @@
       <c r="M106" s="1" t="n"/>
       <c r="N106" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>ThrAbcTransport</t>
@@ -6213,7 +6213,7 @@
       <c r="M107" s="1" t="n"/>
       <c r="N107" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Tim</t>
@@ -6251,7 +6251,7 @@
       <c r="M108" s="1" t="n"/>
       <c r="N108" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P</t>
@@ -6289,7 +6289,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P</t>
@@ -6327,7 +6327,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk</t>
@@ -6365,7 +6365,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt</t>
@@ -6403,7 +6403,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk</t>
@@ -6441,7 +6441,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno</t>
@@ -6479,7 +6479,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba</t>
@@ -6517,7 +6517,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap</t>
@@ -6555,7 +6555,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk</t>
@@ -6593,7 +6593,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt</t>
@@ -6631,7 +6631,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA</t>
@@ -6669,7 +6669,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh</t>
@@ -6707,7 +6707,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox</t>
@@ -6745,7 +6745,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter</t>
@@ -6783,7 +6783,7 @@
       <c r="M122" s="1" t="n"/>
       <c r="N122" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk</t>
@@ -6821,7 +6821,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB</t>
@@ -6859,7 +6859,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk</t>
@@ -6897,7 +6897,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm</t>
@@ -6935,7 +6935,7 @@
       <c r="M126" s="1" t="n"/>
       <c r="N126" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter</t>
@@ -6973,7 +6973,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa</t>
@@ -7011,7 +7011,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs</t>
@@ -7049,7 +7049,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts</t>
@@ -7087,7 +7087,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk</t>
@@ -7125,7 +7125,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH</t>
@@ -7163,7 +7163,7 @@
       <c r="M132" s="1" t="n"/>
       <c r="N132" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome</t>
@@ -7201,7 +7201,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase</t>
@@ -7239,7 +7239,7 @@
       <c r="M134" s="1" t="n"/>
       <c r="N134" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase</t>
@@ -7277,7 +7277,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe</t>
@@ -7315,7 +7315,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim</t>
@@ -7353,7 +7353,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB</t>
@@ -7391,7 +7391,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk</t>
@@ -7429,7 +7429,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp</t>
@@ -7467,7 +7467,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk</t>
@@ -7505,7 +7505,7 @@
       <c r="M141" s="1" t="n"/>
       <c r="N141" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt</t>
@@ -7543,7 +7543,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk</t>
@@ -7581,7 +7581,7 @@
       <c r="M143" s="1" t="n"/>
       <c r="N143" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno</t>
@@ -7619,7 +7619,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba</t>
@@ -7657,7 +7657,7 @@
       <c r="M145" s="1" t="n"/>
       <c r="N145" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap</t>
@@ -7695,7 +7695,7 @@
       <c r="M146" s="1" t="n"/>
       <c r="N146" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk</t>
@@ -7733,7 +7733,7 @@
       <c r="M147" s="1" t="n"/>
       <c r="N147" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt</t>
@@ -7771,7 +7771,7 @@
       <c r="M148" s="1" t="n"/>
       <c r="N148" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA</t>
@@ -7809,7 +7809,7 @@
       <c r="M149" s="1" t="n"/>
       <c r="N149" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh</t>
@@ -7847,7 +7847,7 @@
       <c r="M150" s="1" t="n"/>
       <c r="N150" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox</t>
@@ -7885,7 +7885,7 @@
       <c r="M151" s="1" t="n"/>
       <c r="N151" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter</t>
@@ -7923,7 +7923,7 @@
       <c r="M152" s="1" t="n"/>
       <c r="N152" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk</t>
@@ -7961,7 +7961,7 @@
       <c r="M153" s="1" t="n"/>
       <c r="N153" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB</t>
@@ -7999,7 +7999,7 @@
       <c r="M154" s="1" t="n"/>
       <c r="N154" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk</t>
@@ -8037,7 +8037,7 @@
       <c r="M155" s="1" t="n"/>
       <c r="N155" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm</t>
@@ -8075,7 +8075,7 @@
       <c r="M156" s="1" t="n"/>
       <c r="N156" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter</t>
@@ -8113,7 +8113,7 @@
       <c r="M157" s="1" t="n"/>
       <c r="N157" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa</t>
@@ -8151,7 +8151,7 @@
       <c r="M158" s="1" t="n"/>
       <c r="N158" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs</t>
@@ -8189,7 +8189,7 @@
       <c r="M159" s="1" t="n"/>
       <c r="N159" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts</t>
@@ -8227,7 +8227,7 @@
       <c r="M160" s="1" t="n"/>
       <c r="N160" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk</t>
@@ -8265,7 +8265,7 @@
       <c r="M161" s="1" t="n"/>
       <c r="N161" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH</t>
@@ -8303,7 +8303,7 @@
       <c r="M162" s="1" t="n"/>
       <c r="N162" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome</t>
@@ -8341,7 +8341,7 @@
       <c r="M163" s="1" t="n"/>
       <c r="N163" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase</t>
@@ -8379,7 +8379,7 @@
       <c r="M164" s="1" t="n"/>
       <c r="N164" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase</t>
@@ -8417,7 +8417,7 @@
       <c r="M165" s="1" t="n"/>
       <c r="N165" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe</t>
@@ -8455,7 +8455,7 @@
       <c r="M166" s="1" t="n"/>
       <c r="N166" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim</t>
@@ -8493,7 +8493,7 @@
       <c r="M167" s="1" t="n"/>
       <c r="N167" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB</t>
@@ -8531,7 +8531,7 @@
       <c r="M168" s="1" t="n"/>
       <c r="N168" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk</t>
@@ -8569,7 +8569,7 @@
       <c r="M169" s="1" t="n"/>
       <c r="N169" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="170">
+    <row r="170" ht="15.1" customHeight="1">
       <c r="A170" s="1" t="inlineStr">
         <is>
           <t>Translation_Upp</t>
@@ -8607,7 +8607,7 @@
       <c r="M170" s="1" t="n"/>
       <c r="N170" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="171">
+    <row r="171" ht="15.1" customHeight="1">
       <c r="A171" s="1" t="inlineStr">
         <is>
           <t>TrpAbcTransport</t>
@@ -8639,7 +8639,7 @@
       <c r="M171" s="1" t="n"/>
       <c r="N171" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="172">
+    <row r="172" ht="15.1" customHeight="1">
       <c r="A172" s="1" t="inlineStr">
         <is>
           <t>TyrAbcTransport</t>
@@ -8671,7 +8671,7 @@
       <c r="M172" s="1" t="n"/>
       <c r="N172" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="173">
+    <row r="173" ht="15.1" customHeight="1">
       <c r="A173" s="1" t="inlineStr">
         <is>
           <t>Uck_CYTD</t>
@@ -8703,7 +8703,7 @@
       <c r="M173" s="1" t="n"/>
       <c r="N173" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="174">
+    <row r="174" ht="15.1" customHeight="1">
       <c r="A174" s="1" t="inlineStr">
         <is>
           <t>Uck_URI</t>
@@ -8735,7 +8735,7 @@
       <c r="M174" s="1" t="n"/>
       <c r="N174" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="175">
+    <row r="175" ht="15.1" customHeight="1">
       <c r="A175" s="1" t="inlineStr">
         <is>
           <t>UmpK</t>
@@ -8767,7 +8767,7 @@
       <c r="M175" s="1" t="n"/>
       <c r="N175" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="176">
+    <row r="176" ht="15.1" customHeight="1">
       <c r="A176" s="1" t="inlineStr">
         <is>
           <t>UPRT</t>
@@ -8799,7 +8799,7 @@
       <c r="M176" s="1" t="n"/>
       <c r="N176" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="177">
+    <row r="177" ht="15.1" customHeight="1">
       <c r="A177" s="1" t="inlineStr">
         <is>
           <t>UraTransport</t>
@@ -8831,7 +8831,7 @@
       <c r="M177" s="1" t="n"/>
       <c r="N177" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="178">
+    <row r="178" ht="15.1" customHeight="1">
       <c r="A178" s="1" t="inlineStr">
         <is>
           <t>ValAbcTransport</t>
@@ -8875,8 +8875,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8889,36 +8889,36 @@
   <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="F3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:L2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="8.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="43.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="5.25"/>
-    <col customWidth="1" max="9" min="8" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="10" min="10" style="1" width="22.6"/>
-    <col customWidth="1" max="1026" min="11" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="10" width="9"/>
+    <col width="38.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="4.875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="43.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="5.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="8" max="9"/>
+    <col width="22.6" customWidth="1" style="1" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="11" max="1026"/>
+    <col width="9" customWidth="1" style="10" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='RateLaw'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='RateLaw'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -8980,7 +8980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-backward</t>
@@ -9007,7 +9007,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-forward</t>
@@ -9039,7 +9039,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AK_GTP-backward</t>
@@ -9071,7 +9071,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AK_GTP-forward</t>
@@ -9098,7 +9098,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>AlaAbcTransport-forward</t>
@@ -9125,7 +9125,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>APRT-backward</t>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>APRT-forward</t>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>ArgAbcTransport-forward</t>
@@ -9206,7 +9206,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>AsnAbcTransport-forward</t>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>AspAbcTransport-forward</t>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP-backward</t>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP-forward</t>
@@ -9314,7 +9314,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>CysAbcTransport-forward</t>
@@ -9341,7 +9341,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Eno-backward</t>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Eno-forward</t>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP-backward</t>
@@ -9422,7 +9422,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP-forward</t>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>GapDH-backward</t>
@@ -9476,7 +9476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GapDH-forward</t>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>GlcPtsTransport-forward</t>
@@ -9530,7 +9530,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>GlnAbcTransport-forward</t>
@@ -9557,7 +9557,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>GluAbcTransport-forward</t>
@@ -9584,7 +9584,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>GlyAbcTransport-forward</t>
@@ -9611,7 +9611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Gpm-backward</t>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Gpm-forward</t>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP-backward</t>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP-forward</t>
@@ -9719,7 +9719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>HisAbcTransport-forward</t>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>HPRT-backward</t>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>HPRT-forward</t>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>IleAbcTransport-forward</t>
@@ -9827,7 +9827,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Ldh-backward</t>
@@ -9854,7 +9854,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Ldh-forward</t>
@@ -9881,7 +9881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>LeuAbcTransport-forward</t>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>LysAbcTransport-forward</t>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>MetAbcTransport-forward</t>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>NOX-backward</t>
@@ -9989,7 +9989,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>NOX-forward</t>
@@ -10016,7 +10016,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Pfk_ATP-forward</t>
@@ -10043,7 +10043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Pfk_GTP-forward</t>
@@ -10070,7 +10070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Pfk_UTP-forward</t>
@@ -10097,7 +10097,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Pgi-backward</t>
@@ -10124,7 +10124,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Pgi-forward</t>
@@ -10151,7 +10151,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP-backward</t>
@@ -10178,7 +10178,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP-forward</t>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP-backward</t>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP-forward</t>
@@ -10259,7 +10259,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>PheAbcTransport-forward</t>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransport-forward</t>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Ppa-forward</t>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>ProAbcTransport-forward</t>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>PRPS-forward</t>
@@ -10394,7 +10394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Pyk_ATP-forward</t>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Pyk_CTP-forward</t>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Pyk_GTP-forward</t>
@@ -10475,7 +10475,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>PykUDP-forward</t>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk-forward</t>
@@ -10529,7 +10529,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt-forward</t>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk-forward</t>
@@ -10583,7 +10583,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno-forward</t>
@@ -10610,7 +10610,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba-forward</t>
@@ -10637,7 +10637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap-forward</t>
@@ -10664,7 +10664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk-forward</t>
@@ -10691,7 +10691,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt-forward</t>
@@ -10718,7 +10718,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA-forward</t>
@@ -10745,7 +10745,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh-forward</t>
@@ -10772,7 +10772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox-forward</t>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter-forward</t>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk-forward</t>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB-forward</t>
@@ -10880,7 +10880,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk-forward</t>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm-forward</t>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter-forward</t>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa-forward</t>
@@ -10988,7 +10988,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs-forward</t>
@@ -11015,7 +11015,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts-forward</t>
@@ -11042,7 +11042,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk-forward</t>
@@ -11069,7 +11069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH-forward</t>
@@ -11096,7 +11096,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome-forward</t>
@@ -11123,7 +11123,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase-forward</t>
@@ -11150,7 +11150,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase-forward</t>
@@ -11177,7 +11177,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe-forward</t>
@@ -11204,7 +11204,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim-forward</t>
@@ -11231,7 +11231,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB-forward</t>
@@ -11258,7 +11258,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk-forward</t>
@@ -11285,7 +11285,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Upp-forward</t>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Rpe-backward</t>
@@ -11339,7 +11339,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Rpe-forward</t>
@@ -11366,7 +11366,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>RpiA-backward</t>
@@ -11393,7 +11393,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>RpiA-forward</t>
@@ -11420,7 +11420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>SerAbcTransport-forward</t>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>ThrAbcTransport-forward</t>
@@ -11474,7 +11474,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Tim-backward</t>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Tim-forward</t>
@@ -11528,7 +11528,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P-backward</t>
@@ -11555,7 +11555,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P-forward</t>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P-backward</t>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P-forward</t>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk-forward</t>
@@ -11663,7 +11663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt-forward</t>
@@ -11690,7 +11690,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk-forward</t>
@@ -11717,7 +11717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno-forward</t>
@@ -11744,7 +11744,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba-forward</t>
@@ -11771,7 +11771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap-forward</t>
@@ -11798,7 +11798,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk-forward</t>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt-forward</t>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA-forward</t>
@@ -11879,7 +11879,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh-forward</t>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox-forward</t>
@@ -11933,7 +11933,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter-forward</t>
@@ -11960,7 +11960,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk-forward</t>
@@ -11987,7 +11987,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB-forward</t>
@@ -12014,7 +12014,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk-forward</t>
@@ -12041,7 +12041,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm-forward</t>
@@ -12068,7 +12068,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter-forward</t>
@@ -12095,7 +12095,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa-forward</t>
@@ -12122,7 +12122,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs-forward</t>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts-forward</t>
@@ -12176,7 +12176,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk-forward</t>
@@ -12203,7 +12203,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH-forward</t>
@@ -12230,7 +12230,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome-forward</t>
@@ -12257,7 +12257,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase-forward</t>
@@ -12284,7 +12284,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase-forward</t>
@@ -12311,7 +12311,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe-forward</t>
@@ -12338,7 +12338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim-forward</t>
@@ -12365,7 +12365,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB-forward</t>
@@ -12392,7 +12392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk-forward</t>
@@ -12419,7 +12419,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp-forward</t>
@@ -12446,7 +12446,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk-forward</t>
@@ -12473,7 +12473,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt-forward</t>
@@ -12500,7 +12500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk-forward</t>
@@ -12527,7 +12527,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno-forward</t>
@@ -12554,7 +12554,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba-forward</t>
@@ -12581,7 +12581,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap-forward</t>
@@ -12608,7 +12608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk-forward</t>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt-forward</t>
@@ -12662,7 +12662,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA-forward</t>
@@ -12689,7 +12689,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh-forward</t>
@@ -12716,7 +12716,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox-forward</t>
@@ -12743,7 +12743,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter-forward</t>
@@ -12770,7 +12770,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk-forward</t>
@@ -12797,7 +12797,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB-forward</t>
@@ -12824,7 +12824,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk-forward</t>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm-forward</t>
@@ -12878,7 +12878,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter-forward</t>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa-forward</t>
@@ -12932,7 +12932,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs-forward</t>
@@ -12959,7 +12959,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts-forward</t>
@@ -12986,7 +12986,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk-forward</t>
@@ -13013,7 +13013,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH-forward</t>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome-forward</t>
@@ -13067,7 +13067,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase-forward</t>
@@ -13094,7 +13094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase-forward</t>
@@ -13121,7 +13121,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe-forward</t>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim-forward</t>
@@ -13175,7 +13175,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB-forward</t>
@@ -13202,7 +13202,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk-forward</t>
@@ -13229,7 +13229,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="1" t="inlineStr">
         <is>
           <t>Translation_Upp-forward</t>
@@ -13256,7 +13256,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="1" t="inlineStr">
         <is>
           <t>TrpAbcTransport-forward</t>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="1" t="inlineStr">
         <is>
           <t>TyrAbcTransport-forward</t>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="1" t="inlineStr">
         <is>
           <t>Uck_CYTD-forward</t>
@@ -13337,7 +13337,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="1" t="inlineStr">
         <is>
           <t>Uck_URI-forward</t>
@@ -13364,7 +13364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="1" t="inlineStr">
         <is>
           <t>UmpK-backward</t>
@@ -13391,7 +13391,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="1" t="inlineStr">
         <is>
           <t>UmpK-forward</t>
@@ -13418,7 +13418,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="1" t="inlineStr">
         <is>
           <t>UPRT-backward</t>
@@ -13445,7 +13445,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="1" t="inlineStr">
         <is>
           <t>UPRT-forward</t>
@@ -13472,7 +13472,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="1" t="inlineStr">
         <is>
           <t>ValAbcTransport-forward</t>
@@ -13501,8 +13501,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C2:L169"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -13515,29 +13515,29 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:L2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="22.6"/>
-    <col customWidth="1" max="3" min="2" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="1" width="47.5666666666667"/>
-    <col customWidth="1" max="1028" min="5" style="1" width="9.108333333333331"/>
+    <col width="22.6" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="2" max="3"/>
+    <col width="47.5666666666667" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="5" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1">
+    <row r="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjective'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='DfbaObjective'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -13599,7 +13599,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>dfba-obj-Metabolism</t>
@@ -13632,8 +13632,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -13654,30 +13654,30 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J2" pane="bottomRight" sqref="A1:J2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="20.25"/>
-    <col customWidth="1" max="2" min="2" style="2" width="26.1416666666667"/>
-    <col customWidth="1" max="9" min="3" style="2" width="11.25"/>
-    <col customWidth="1" max="10" min="10" style="2" width="10.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="2" width="8.78333333333333"/>
+    <col width="20.25" customWidth="1" style="2" min="1" max="1"/>
+    <col width="26.1416666666667" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.25" customWidth="1" style="2" min="3" max="9"/>
+    <col width="10.3916666666667" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="2" min="11" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjReaction'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='DfbaObjReaction'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -13729,7 +13729,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Metabolism_net_rxn</t>
@@ -13761,7 +13761,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Other_net_rxn</t>
@@ -13794,8 +13794,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -13808,32 +13808,32 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="12" width="22.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="12" width="20.7833333333333"/>
-    <col customWidth="1" max="4" min="4" style="12" width="9.108333333333331"/>
-    <col customWidth="1" max="5" min="5" style="12" width="10.3916666666667"/>
-    <col customWidth="1" max="6" min="6" style="12" width="9.108333333333331"/>
-    <col customWidth="1" max="10" min="7" style="12" width="8.78333333333333"/>
-    <col customWidth="1" max="11" min="11" style="12" width="16.5"/>
-    <col customWidth="1" max="1023" min="12" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1024" min="1024" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" style="9" width="8.78333333333333"/>
+    <col width="38.125" customWidth="1" style="12" min="1" max="1"/>
+    <col width="22.3916666666667" customWidth="1" style="12" min="2" max="2"/>
+    <col width="20.7833333333333" customWidth="1" style="12" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="12" min="4" max="4"/>
+    <col width="10.3916666666667" customWidth="1" style="12" min="5" max="5"/>
+    <col width="9.108333333333331" customWidth="1" style="12" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="12" min="7" max="10"/>
+    <col width="16.5" customWidth="1" style="12" min="11" max="11"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="12" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1024" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" style="9" min="1025" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='DfbaObjSpecies'</t>
+          <t>!!ObjTables type='Date' id='DfbaObjSpecies'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13847,7 +13847,7 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="2">
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -13904,7 +13904,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ALA[c]</t>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-AMP[c]</t>
@@ -13974,7 +13974,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ARG[c]</t>
@@ -14004,7 +14004,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASN[c]</t>
@@ -14034,7 +14034,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASP[c]</t>
@@ -14064,7 +14064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ATP[c]</t>
@@ -14094,7 +14094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CMP[c]</t>
@@ -14124,7 +14124,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CTP[c]</t>
@@ -14154,7 +14154,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CYS[c]</t>
@@ -14184,7 +14184,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GDP[c]</t>
@@ -14214,7 +14214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLN[c]</t>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLU[c]</t>
@@ -14274,7 +14274,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLY[c]</t>
@@ -14304,7 +14304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GMP[c]</t>
@@ -14334,7 +14334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GTP[c]</t>
@@ -14364,7 +14364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H2O[c]</t>
@@ -14394,7 +14394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H[c]</t>
@@ -14424,7 +14424,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-HIS[c]</t>
@@ -14454,7 +14454,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ILE[c]</t>
@@ -14484,7 +14484,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LEU[c]</t>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LYS[c]</t>
@@ -14544,7 +14544,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-MET[c]</t>
@@ -14574,7 +14574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PHE[c]</t>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-Pi[c]</t>
@@ -14634,7 +14634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PPi[c]</t>
@@ -14664,7 +14664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PRO[c]</t>
@@ -14694,7 +14694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-SER[c]</t>
@@ -14724,7 +14724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-THR[c]</t>
@@ -14754,7 +14754,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TRP[c]</t>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TYR[c]</t>
@@ -14814,7 +14814,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UMP[c]</t>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UTP[c]</t>
@@ -14874,7 +14874,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-VAL[c]</t>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Other_net_rxn-PPi[c]</t>
@@ -14934,7 +14934,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
         <is>
           <t>dfba-net-species-Other_net_rxn-UMP[c]</t>
@@ -14965,8 +14965,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -14979,27 +14979,27 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.625"/>
-    <col customWidth="1" max="1026" min="5" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="10" width="9"/>
+    <col width="21.75" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="5" max="1026"/>
+    <col width="9" customWidth="1" style="10" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Parameter'</t>
+          <t>!!ObjTables type='Date' id='Parameter'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17511,8 +17511,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:K97"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -17525,27 +17525,27 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I2" pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="11.125"/>
-    <col customWidth="1" max="2" min="2" style="9" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="9" width="30"/>
-    <col customWidth="1" max="4" min="4" style="9" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="9" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="11.125" customWidth="1" style="9" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="9" min="2" max="2"/>
+    <col width="30" customWidth="1" style="9" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="9" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="9" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='StopCondition'</t>
+          <t>!!ObjTables type='Date' id='StopCondition'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17557,7 +17557,7 @@
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="2">
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -17604,7 +17604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>stop_cond_1</t>
@@ -17625,7 +17625,7 @@
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>stop_cond_2</t>
@@ -17647,8 +17647,8 @@
       <c r="G4" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -17669,24 +17669,24 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="H4" xSplit="1" ySplit="3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:W3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1034" min="3" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="1034"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Observation'</t>
+          <t>!!ObjTables type='Date' id='Observation'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17712,7 +17712,7 @@
       <c r="V1" s="2" t="n"/>
       <c r="W1" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="G2" s="8" t="inlineStr">
         <is>
           <t>!Genotype</t>
@@ -17734,7 +17734,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -17851,7 +17851,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>observation_001</t>
@@ -17905,7 +17905,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>observation_001_a</t>
@@ -17939,7 +17939,7 @@
       </c>
       <c r="I5" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>observation_001_b</t>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="I6" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>observation_001_c</t>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="I7" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>observation_002</t>
@@ -18039,7 +18039,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>observation_003</t>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>observation_004</t>
@@ -18098,7 +18098,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>observation_005</t>
@@ -18132,8 +18132,8 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18154,26 +18154,26 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1:A13"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="13.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="4" width="51.525"/>
-    <col customWidth="1" max="1025" min="3" style="4" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="4" min="1" max="1"/>
+    <col width="51.525" customWidth="1" style="4" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="3" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Model'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='Model'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18185,7 +18185,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="20" t="inlineStr">
         <is>
           <t>!Version</t>
@@ -18209,7 +18209,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="20" t="inlineStr">
         <is>
           <t>!URL</t>
@@ -18221,7 +18221,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="20" t="inlineStr">
         <is>
           <t>!Branch</t>
@@ -18233,7 +18233,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
           <t>!Revision</t>
@@ -18245,7 +18245,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="20" t="inlineStr">
         <is>
           <t>!wc_lang version</t>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="20" t="inlineStr">
         <is>
           <t>!Time units</t>
@@ -18269,28 +18269,28 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="20" t="inlineStr">
         <is>
           <t>!Identifiers</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="20" t="inlineStr">
         <is>
           <t>!Comments</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="20" t="inlineStr">
         <is>
           <t>!Created</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="20" t="inlineStr">
         <is>
           <t>!Updated</t>
@@ -18300,10 +18300,10 @@
   </sheetData>
   <autoFilter ref="A2:B13"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B5" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -18316,24 +18316,24 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F2" pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="3" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="4" max="1017"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='ObservationSet'</t>
+          <t>!!ObjTables type='Date' id='ObservationSet'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18342,7 +18342,7 @@
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="2">
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18374,7 +18374,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>observation_set_001</t>
@@ -18396,7 +18396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>observation_set_002</t>
@@ -18413,7 +18413,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>observation_set_003</t>
@@ -18430,14 +18430,14 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
-    <row customHeight="1" ht="15.1" r="10"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+    <row r="10" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18458,27 +18458,27 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="N3" pane="bottomRight" sqref="A1:N3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="14.75"/>
-    <col customWidth="1" max="5" min="3" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="6" min="6" style="1" width="25.625"/>
-    <col customWidth="1" max="1023" min="7" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="5"/>
+    <col width="25.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="7" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Conclusion'</t>
+          <t>!!ObjTables type='Date' id='Conclusion'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18502,7 +18502,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>conclusion_001</t>
@@ -18611,7 +18611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>conclusion_002</t>
@@ -18648,27 +18648,27 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="C11" s="7" t="n"/>
       <c r="D11" s="7" t="n"/>
     </row>
@@ -18676,8 +18676,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18698,25 +18698,25 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="R2" pane="bottomRight" sqref="A1:R2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="7" min="7" style="4" width="19.125"/>
-    <col customWidth="1" max="1025" min="8" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="5" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1" max="6"/>
+    <col width="19.125" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="8" max="1025"/>
+    <col width="9" customWidth="1" style="5" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Reference'</t>
+          <t>!!ObjTables type='Date' id='Reference'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -19918,11 +19918,11 @@
   </sheetData>
   <autoFilter ref="A2:R23"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="URL: http://book.bionumbers.org/what-is-the-density-of-cells/" ref="Q22" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="URL: https://water.usgs.gov/edu/density.html" ref="Q23" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q22" display="URL: http://book.bionumbers.org/what-is-the-density-of-cells/" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q23" display="URL: https://water.usgs.gov/edu/density.html" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -19935,22 +19935,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C3" xSplit="2" ySplit="2"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L2" pane="bottomRight" sqref="L2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Author'</t>
+          <t>!!ObjTables type='Date' id='Author'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20028,7 +20028,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -20041,22 +20041,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G15" pane="bottomRight" sqref="G15"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Change'</t>
+          <t>!!ObjTables type='Date' id='Change'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20164,7 +20164,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -20177,27 +20177,27 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1:A7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="1" width="29.775"/>
-    <col customWidth="1" max="1025" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="10" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="1" min="1" max="1"/>
+    <col width="29.775" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1025"/>
+    <col width="9" customWidth="1" style="10" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Taxon'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='Taxon'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20209,7 +20209,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -20221,7 +20221,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="20" t="inlineStr">
         <is>
           <t>!Rank</t>
@@ -20233,21 +20233,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="20" t="inlineStr">
         <is>
           <t>!Identifiers</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="20" t="inlineStr">
         <is>
           <t>!Comments</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="20" t="inlineStr">
         <is>
           <t>!References</t>
@@ -20255,8 +20255,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -20269,24 +20269,24 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1:A8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="5.375"/>
-    <col customWidth="1" max="1018" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1019" min="1019" style="21" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1020" style="21" width="9"/>
+    <col width="18.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1018"/>
+    <col width="8.78333333333333" customWidth="1" style="21" min="1019" max="1019"/>
+    <col width="9" customWidth="1" style="21" min="1020" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Environment'</t>
+          <t>!!ObjTables type='Date' id='Environment'</t>
         </is>
       </c>
     </row>
@@ -20353,7 +20353,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -20366,26 +20366,26 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:H2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="13.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="10.925"/>
-    <col customWidth="1" max="7" min="4" style="4" width="11.675"/>
-    <col customWidth="1" max="8" min="8" style="4" width="11.3583333333333"/>
-    <col customWidth="1" max="1026" min="9" style="4" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="4" min="1" max="2"/>
+    <col width="10.925" customWidth="1" style="4" min="3" max="3"/>
+    <col width="11.675" customWidth="1" style="4" min="4" max="7"/>
+    <col width="11.3583333333333" customWidth="1" style="4" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="9" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Submodel'</t>
+          <t>!!ObjTables type='Date' id='Submodel'</t>
         </is>
       </c>
     </row>
@@ -20525,8 +20525,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:H6"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -20539,30 +20539,30 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="K4" xSplit="1" ySplit="3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:U3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="6.10833333333333"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="24.125"/>
-    <col customWidth="1" max="4" min="4" style="4" width="17.5"/>
-    <col customWidth="1" max="7" min="5" style="4" width="14.1416666666667"/>
-    <col customWidth="1" max="20" min="8" style="4" width="11.7833333333333"/>
-    <col customWidth="1" max="21" min="21" style="4" width="11.3583333333333"/>
-    <col customWidth="1" max="1032" min="22" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1035" min="1033" width="8.78333333333333"/>
+    <col width="6.10833333333333" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="2"/>
+    <col width="24.125" customWidth="1" style="4" min="3" max="3"/>
+    <col width="17.5" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.1416666666667" customWidth="1" style="4" min="5" max="7"/>
+    <col width="11.7833333333333" customWidth="1" style="4" min="8" max="20"/>
+    <col width="11.3583333333333" customWidth="1" style="4" min="21" max="21"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="22" max="1032"/>
+    <col width="8.78333333333333" customWidth="1" min="1033" max="1035"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Compartment'</t>
+          <t>!!ObjTables type='Date' id='Compartment'</t>
         </is>
       </c>
     </row>
@@ -20863,8 +20863,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -20877,23 +20877,23 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B137" xSplit="1" ySplit="3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:N3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="26.025"/>
-    <col customWidth="1" max="1028" min="2" style="4" width="8.78333333333333"/>
+    <col width="26.025" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="2" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1">
+    <row r="1" ht="27" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='SpeciesType'</t>
+          <t>!!ObjTables type='Date' id='SpeciesType'</t>
         </is>
       </c>
     </row>
@@ -20904,7 +20904,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20976,7 +20976,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AD</t>
@@ -21014,7 +21014,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Adk_Protein</t>
@@ -21044,7 +21044,7 @@
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Adk_Rna</t>
@@ -21074,7 +21074,7 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
@@ -21104,7 +21104,7 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ALA</t>
@@ -21134,7 +21134,7 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>AlaAla</t>
@@ -21172,7 +21172,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AMP</t>
@@ -21202,7 +21202,7 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Apt_Protein</t>
@@ -21232,7 +21232,7 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Apt_Rna</t>
@@ -21262,7 +21262,7 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>ARG</t>
@@ -21292,7 +21292,7 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>ArgArg</t>
@@ -21330,7 +21330,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ASN</t>
@@ -21360,7 +21360,7 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>AsnAsn</t>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="N16" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>ASP</t>
@@ -21424,7 +21424,7 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>AspAsp</t>
@@ -21462,7 +21462,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>ATP</t>
@@ -21492,7 +21492,7 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>CDP</t>
@@ -21522,7 +21522,7 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Cmk_Protein</t>
@@ -21552,7 +21552,7 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Cmk_Rna</t>
@@ -21582,7 +21582,7 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>CMP</t>
@@ -21612,7 +21612,7 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
@@ -21650,7 +21650,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>CTP</t>
@@ -21680,7 +21680,7 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>CYS</t>
@@ -21710,7 +21710,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>CysCys</t>
@@ -21748,7 +21748,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>CYTD</t>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="N28" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DPG</t>
@@ -21812,7 +21812,7 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>E4P</t>
@@ -21842,7 +21842,7 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Eno_Protein</t>
@@ -21872,7 +21872,7 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Eno_Rna</t>
@@ -21902,7 +21902,7 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>F6P</t>
@@ -21932,7 +21932,7 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Fba_Protein</t>
@@ -21962,7 +21962,7 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Fba_Rna</t>
@@ -21992,7 +21992,7 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>FDP</t>
@@ -22022,7 +22022,7 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>G2P</t>
@@ -22052,7 +22052,7 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>G3P</t>
@@ -22082,7 +22082,7 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>G6P</t>
@@ -22112,7 +22112,7 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>Gap_Protein</t>
@@ -22142,7 +22142,7 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Gap_Rna</t>
@@ -22172,7 +22172,7 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GDP</t>
@@ -22202,7 +22202,7 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Gk_Protein</t>
@@ -22232,7 +22232,7 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Gk_Rna</t>
@@ -22262,7 +22262,7 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GLC</t>
@@ -22300,7 +22300,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>GLN</t>
@@ -22330,7 +22330,7 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>GlnGln</t>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>GLU</t>
@@ -22398,7 +22398,7 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>GluGlu</t>
@@ -22436,7 +22436,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>GLY</t>
@@ -22466,7 +22466,7 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>GlyGly</t>
@@ -22504,7 +22504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>GMP</t>
@@ -22534,7 +22534,7 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>GN</t>
@@ -22572,7 +22572,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>GTP</t>
@@ -22602,7 +22602,7 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>H</t>
@@ -22636,7 +22636,7 @@
       </c>
       <c r="N55" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
@@ -22674,7 +22674,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>HIS</t>
@@ -22704,7 +22704,7 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>HisHis</t>
@@ -22742,7 +22742,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Hpt_Protein</t>
@@ -22772,7 +22772,7 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Hpt_Rna</t>
@@ -22802,7 +22802,7 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>ILE</t>
@@ -22832,7 +22832,7 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>IleIle</t>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>LAC</t>
@@ -22900,7 +22900,7 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>LacA_Protein</t>
@@ -22930,7 +22930,7 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>LacA_Rna</t>
@@ -22960,7 +22960,7 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Ldh_Protein</t>
@@ -22990,7 +22990,7 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Ldh_Rna</t>
@@ -23020,7 +23020,7 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>LEU</t>
@@ -23050,7 +23050,7 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>LeuLeu</t>
@@ -23088,7 +23088,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>LYS</t>
@@ -23118,7 +23118,7 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>LysLys</t>
@@ -23156,7 +23156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>MET</t>
@@ -23186,7 +23186,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>MetMet</t>
@@ -23224,7 +23224,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>NAD</t>
@@ -23262,7 +23262,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>NADH</t>
@@ -23292,7 +23292,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Nox_Protein</t>
@@ -23322,7 +23322,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Nox_Rna</t>
@@ -23352,7 +23352,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>O2</t>
@@ -23390,7 +23390,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>PEP</t>
@@ -23420,7 +23420,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein</t>
@@ -23450,7 +23450,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna</t>
@@ -23480,7 +23480,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Pfk_Protein</t>
@@ -23510,7 +23510,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Pfk_Rna</t>
@@ -23540,7 +23540,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>PgiB_Protein</t>
@@ -23570,7 +23570,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>PgiB_Rna</t>
@@ -23600,7 +23600,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Pgk_Protein</t>
@@ -23630,7 +23630,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Pgk_Rna</t>
@@ -23660,7 +23660,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Pgm_Protein</t>
@@ -23690,7 +23690,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Pgm_Rna</t>
@@ -23720,7 +23720,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>PHE</t>
@@ -23750,7 +23750,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>PhePhe</t>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Pi</t>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein</t>
@@ -23852,7 +23852,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna</t>
@@ -23882,7 +23882,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Ppa_Protein</t>
@@ -23912,7 +23912,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Ppa_Rna</t>
@@ -23942,7 +23942,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>PPi</t>
@@ -23972,7 +23972,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>PRO</t>
@@ -24002,7 +24002,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>ProPro</t>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>PRPP</t>
@@ -24070,7 +24070,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Prs_Protein</t>
@@ -24100,7 +24100,7 @@
       <c r="M101" s="1" t="n"/>
       <c r="N101" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Prs_Rna</t>
@@ -24130,7 +24130,7 @@
       <c r="M102" s="1" t="n"/>
       <c r="N102" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Pts_Protein</t>
@@ -24160,7 +24160,7 @@
       <c r="M103" s="1" t="n"/>
       <c r="N103" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Pts_Rna</t>
@@ -24190,7 +24190,7 @@
       <c r="M104" s="1" t="n"/>
       <c r="N104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Pyk_Protein</t>
@@ -24220,7 +24220,7 @@
       <c r="M105" s="1" t="n"/>
       <c r="N105" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Pyk_Rna</t>
@@ -24250,7 +24250,7 @@
       <c r="M106" s="1" t="n"/>
       <c r="N106" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>PYR</t>
@@ -24280,7 +24280,7 @@
       <c r="M107" s="1" t="n"/>
       <c r="N107" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>PyrH_Protein</t>
@@ -24310,7 +24310,7 @@
       <c r="M108" s="1" t="n"/>
       <c r="N108" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>PyrH_Rna</t>
@@ -24340,7 +24340,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>R5P</t>
@@ -24370,7 +24370,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Protein</t>
@@ -24400,7 +24400,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Rna</t>
@@ -24430,7 +24430,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>RL5P</t>
@@ -24460,7 +24460,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein</t>
@@ -24490,7 +24490,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna</t>
@@ -24520,7 +24520,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Rnase_Protein</t>
@@ -24550,7 +24550,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Rnase_Rna</t>
@@ -24580,7 +24580,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Rpe_Protein</t>
@@ -24610,7 +24610,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Rpe_Rna</t>
@@ -24640,7 +24640,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>S7P</t>
@@ -24670,7 +24670,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>SER</t>
@@ -24700,7 +24700,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>SerSer</t>
@@ -24738,7 +24738,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>T3P1</t>
@@ -24768,7 +24768,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>T3P2</t>
@@ -24798,7 +24798,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>THR</t>
@@ -24828,7 +24828,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>ThrThr</t>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Tim_Protein</t>
@@ -24896,7 +24896,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Tim_Rna</t>
@@ -24926,7 +24926,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>TklB_Protein</t>
@@ -24956,7 +24956,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>TklB_Rna</t>
@@ -24986,7 +24986,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>TRP</t>
@@ -25016,7 +25016,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>TrpTrp</t>
@@ -25054,7 +25054,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>TYR</t>
@@ -25084,7 +25084,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>TyrTyr</t>
@@ -25122,7 +25122,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Udk_Protein</t>
@@ -25152,7 +25152,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Udk_Rna</t>
@@ -25182,7 +25182,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>UDP</t>
@@ -25212,7 +25212,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>UMP</t>
@@ -25242,7 +25242,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Upp_Protein</t>
@@ -25272,7 +25272,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Upp_Rna</t>
@@ -25302,7 +25302,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>URA</t>
@@ -25340,7 +25340,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>URI</t>
@@ -25370,7 +25370,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>UTP</t>
@@ -25408,7 +25408,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>VAL</t>
@@ -25438,7 +25438,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>ValVal</t>
@@ -25476,7 +25476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>X5P</t>
@@ -25511,8 +25511,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -25525,28 +25525,28 @@
   <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:J2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="28.7083333333333"/>
-    <col customWidth="1" max="10" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="4" width="9.108333333333331"/>
+    <col width="28.7083333333333" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="10"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1">
+    <row r="1" ht="27" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='Species'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Date' id='Species'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="20" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -25598,7 +25598,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>AD[c]</t>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="I3" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>AD[e]</t>
@@ -25644,7 +25644,7 @@
       </c>
       <c r="I4" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Adk_Protein[c]</t>
@@ -25667,7 +25667,7 @@
       </c>
       <c r="I5" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Adk_Rna[c]</t>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="I6" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ADP[c]</t>
@@ -25713,7 +25713,7 @@
       </c>
       <c r="I7" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>ALA[c]</t>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="I8" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>AlaAla[c]</t>
@@ -25759,7 +25759,7 @@
       </c>
       <c r="I9" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>AlaAla[e]</t>
@@ -25782,7 +25782,7 @@
       </c>
       <c r="I10" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>AMP[c]</t>
@@ -25805,7 +25805,7 @@
       </c>
       <c r="I11" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Apt_Protein[c]</t>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="I12" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Apt_Rna[c]</t>
@@ -25851,7 +25851,7 @@
       </c>
       <c r="I13" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>ARG[c]</t>
@@ -25874,7 +25874,7 @@
       </c>
       <c r="I14" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>ArgArg[c]</t>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="I15" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>ArgArg[e]</t>
@@ -25920,7 +25920,7 @@
       </c>
       <c r="I16" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>ASN[c]</t>
@@ -25943,7 +25943,7 @@
       </c>
       <c r="I17" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>AsnAsn[c]</t>
@@ -25966,7 +25966,7 @@
       </c>
       <c r="I18" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>AsnAsn[e]</t>
@@ -25989,7 +25989,7 @@
       </c>
       <c r="I19" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>ASP[c]</t>
@@ -26012,7 +26012,7 @@
       </c>
       <c r="I20" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>AspAsp[c]</t>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="I21" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>AspAsp[e]</t>
@@ -26058,7 +26058,7 @@
       </c>
       <c r="I22" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t>ATP[c]</t>
@@ -26081,7 +26081,7 @@
       </c>
       <c r="I23" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
           <t>CDP[c]</t>
@@ -26104,7 +26104,7 @@
       </c>
       <c r="I24" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Cmk_Protein[c]</t>
@@ -26127,7 +26127,7 @@
       </c>
       <c r="I25" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Cmk_Rna[c]</t>
@@ -26150,7 +26150,7 @@
       </c>
       <c r="I26" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>CMP[c]</t>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="I27" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
           <t>CO2[c]</t>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="I28" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
           <t>CO2[e]</t>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="I29" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
           <t>CTP[c]</t>
@@ -26242,7 +26242,7 @@
       </c>
       <c r="I30" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>CYS[c]</t>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="I31" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
           <t>CysCys[c]</t>
@@ -26288,7 +26288,7 @@
       </c>
       <c r="I32" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>CysCys[e]</t>
@@ -26311,7 +26311,7 @@
       </c>
       <c r="I33" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>CYTD[c]</t>
@@ -26334,7 +26334,7 @@
       </c>
       <c r="I34" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
           <t>CYTD[e]</t>
@@ -26357,7 +26357,7 @@
       </c>
       <c r="I35" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
           <t>DPG[c]</t>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I36" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
           <t>E4P[c]</t>
@@ -26403,7 +26403,7 @@
       </c>
       <c r="I37" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
           <t>Eno_Protein[c]</t>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="I38" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Eno_Rna[c]</t>
@@ -26449,7 +26449,7 @@
       </c>
       <c r="I39" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
           <t>F6P[c]</t>
@@ -26472,7 +26472,7 @@
       </c>
       <c r="I40" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
           <t>Fba_Protein[c]</t>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="I41" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
           <t>Fba_Rna[c]</t>
@@ -26518,7 +26518,7 @@
       </c>
       <c r="I42" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
           <t>FDP[c]</t>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="I43" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
           <t>G2P[c]</t>
@@ -26564,7 +26564,7 @@
       </c>
       <c r="I44" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>G3P[c]</t>
@@ -26587,7 +26587,7 @@
       </c>
       <c r="I45" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
           <t>G6P[c]</t>
@@ -26610,7 +26610,7 @@
       </c>
       <c r="I46" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Gap_Protein[c]</t>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="I47" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Gap_Rna[c]</t>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="I48" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>GDP[c]</t>
@@ -26679,7 +26679,7 @@
       </c>
       <c r="I49" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
           <t>Gk_Protein[c]</t>
@@ -26702,7 +26702,7 @@
       </c>
       <c r="I50" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
           <t>Gk_Rna[c]</t>
@@ -26725,7 +26725,7 @@
       </c>
       <c r="I51" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
           <t>GLC[e]</t>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I52" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>GLN[c]</t>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="I53" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
           <t>GlnGln[c]</t>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="I54" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
           <t>GlnGln[e]</t>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="I55" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
           <t>GLU[c]</t>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="I56" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
           <t>GluGlu[c]</t>
@@ -26863,7 +26863,7 @@
       </c>
       <c r="I57" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GluGlu[e]</t>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="I58" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
           <t>GLY[c]</t>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="I59" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
           <t>GlyGly[c]</t>
@@ -26932,7 +26932,7 @@
       </c>
       <c r="I60" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
           <t>GlyGly[e]</t>
@@ -26955,7 +26955,7 @@
       </c>
       <c r="I61" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
           <t>GMP[c]</t>
@@ -26978,7 +26978,7 @@
       </c>
       <c r="I62" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
           <t>GN[c]</t>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="I63" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
           <t>GN[e]</t>
@@ -27024,7 +27024,7 @@
       </c>
       <c r="I64" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
           <t>GTP[c]</t>
@@ -27047,7 +27047,7 @@
       </c>
       <c r="I65" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
           <t>H2O[c]</t>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="I66" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
           <t>H2O[e]</t>
@@ -27093,7 +27093,7 @@
       </c>
       <c r="I67" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
           <t>H[c]</t>
@@ -27116,7 +27116,7 @@
       </c>
       <c r="I68" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
           <t>H[e]</t>
@@ -27139,7 +27139,7 @@
       </c>
       <c r="I69" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
           <t>HIS[c]</t>
@@ -27162,7 +27162,7 @@
       </c>
       <c r="I70" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
           <t>HisHis[c]</t>
@@ -27185,7 +27185,7 @@
       </c>
       <c r="I71" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
           <t>HisHis[e]</t>
@@ -27208,7 +27208,7 @@
       </c>
       <c r="I72" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
           <t>Hpt_Protein[c]</t>
@@ -27231,7 +27231,7 @@
       </c>
       <c r="I73" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
           <t>Hpt_Rna[c]</t>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="I74" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
           <t>ILE[c]</t>
@@ -27277,7 +27277,7 @@
       </c>
       <c r="I75" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
           <t>IleIle[c]</t>
@@ -27300,7 +27300,7 @@
       </c>
       <c r="I76" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
           <t>IleIle[e]</t>
@@ -27323,7 +27323,7 @@
       </c>
       <c r="I77" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
           <t>LAC[c]</t>
@@ -27346,7 +27346,7 @@
       </c>
       <c r="I78" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
           <t>LAC[e]</t>
@@ -27369,7 +27369,7 @@
       </c>
       <c r="I79" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
           <t>LacA_Protein[c]</t>
@@ -27392,7 +27392,7 @@
       </c>
       <c r="I80" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
           <t>LacA_Rna[c]</t>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="I81" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
           <t>Ldh_Protein[c]</t>
@@ -27438,7 +27438,7 @@
       </c>
       <c r="I82" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
           <t>Ldh_Rna[c]</t>
@@ -27461,7 +27461,7 @@
       </c>
       <c r="I83" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
           <t>LEU[c]</t>
@@ -27484,7 +27484,7 @@
       </c>
       <c r="I84" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
           <t>LeuLeu[c]</t>
@@ -27507,7 +27507,7 @@
       </c>
       <c r="I85" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
           <t>LeuLeu[e]</t>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="I86" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
           <t>LYS[c]</t>
@@ -27553,7 +27553,7 @@
       </c>
       <c r="I87" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
           <t>LysLys[c]</t>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="I88" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
           <t>LysLys[e]</t>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="I89" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
           <t>MET[c]</t>
@@ -27622,7 +27622,7 @@
       </c>
       <c r="I90" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
           <t>MetMet[c]</t>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="I91" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
           <t>MetMet[e]</t>
@@ -27668,7 +27668,7 @@
       </c>
       <c r="I92" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
           <t>NAD[c]</t>
@@ -27691,7 +27691,7 @@
       </c>
       <c r="I93" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
           <t>NAD[e]</t>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="I94" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
           <t>NADH[c]</t>
@@ -27737,7 +27737,7 @@
       </c>
       <c r="I95" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
           <t>Nox_Protein[c]</t>
@@ -27760,7 +27760,7 @@
       </c>
       <c r="I96" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
           <t>Nox_Rna[c]</t>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="I97" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
           <t>O2[c]</t>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="I98" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
           <t>O2[e]</t>
@@ -27829,7 +27829,7 @@
       </c>
       <c r="I99" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
           <t>PEP[c]</t>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="I100" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein[c]</t>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="I101" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna[c]</t>
@@ -27898,7 +27898,7 @@
       </c>
       <c r="I102" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
           <t>Pfk_Protein[c]</t>
@@ -27921,7 +27921,7 @@
       </c>
       <c r="I103" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
           <t>Pfk_Rna[c]</t>
@@ -27944,7 +27944,7 @@
       </c>
       <c r="I104" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
           <t>PgiB_Protein[c]</t>
@@ -27967,7 +27967,7 @@
       </c>
       <c r="I105" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
           <t>PgiB_Rna[c]</t>
@@ -27990,7 +27990,7 @@
       </c>
       <c r="I106" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
           <t>Pgk_Protein[c]</t>
@@ -28013,7 +28013,7 @@
       </c>
       <c r="I107" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
           <t>Pgk_Rna[c]</t>
@@ -28036,7 +28036,7 @@
       </c>
       <c r="I108" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
           <t>Pgm_Protein[c]</t>
@@ -28059,7 +28059,7 @@
       </c>
       <c r="I109" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
           <t>Pgm_Rna[c]</t>
@@ -28082,7 +28082,7 @@
       </c>
       <c r="I110" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
           <t>PHE[c]</t>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="I111" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
           <t>PhePhe[c]</t>
@@ -28128,7 +28128,7 @@
       </c>
       <c r="I112" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
           <t>PhePhe[e]</t>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="I113" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
           <t>Pi[c]</t>
@@ -28174,7 +28174,7 @@
       </c>
       <c r="I114" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
           <t>Pi[e]</t>
@@ -28197,7 +28197,7 @@
       </c>
       <c r="I115" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein[c]</t>
@@ -28220,7 +28220,7 @@
       </c>
       <c r="I116" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna[c]</t>
@@ -28243,7 +28243,7 @@
       </c>
       <c r="I117" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
           <t>Ppa_Protein[c]</t>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="I118" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
           <t>Ppa_Rna[c]</t>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="I119" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
           <t>PPi[c]</t>
@@ -28312,7 +28312,7 @@
       </c>
       <c r="I120" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
           <t>PRO[c]</t>
@@ -28335,7 +28335,7 @@
       </c>
       <c r="I121" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
           <t>ProPro[c]</t>
@@ -28358,7 +28358,7 @@
       </c>
       <c r="I122" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
           <t>ProPro[e]</t>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="I123" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
           <t>PRPP[c]</t>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="I124" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
           <t>Prs_Protein[c]</t>
@@ -28427,7 +28427,7 @@
       </c>
       <c r="I125" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
           <t>Prs_Rna[c]</t>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="I126" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
           <t>Pts_Protein[c]</t>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="I127" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
           <t>Pts_Rna[c]</t>
@@ -28496,7 +28496,7 @@
       </c>
       <c r="I128" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
           <t>Pyk_Protein[c]</t>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="I129" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
           <t>Pyk_Rna[c]</t>
@@ -28542,7 +28542,7 @@
       </c>
       <c r="I130" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
           <t>PYR[c]</t>
@@ -28565,7 +28565,7 @@
       </c>
       <c r="I131" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
           <t>PyrH_Protein[c]</t>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="I132" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
           <t>PyrH_Rna[c]</t>
@@ -28611,7 +28611,7 @@
       </c>
       <c r="I133" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
           <t>R5P[c]</t>
@@ -28634,7 +28634,7 @@
       </c>
       <c r="I134" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
           <t>Ribosome_Protein[c]</t>
@@ -28657,7 +28657,7 @@
       </c>
       <c r="I135" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
           <t>Ribosome_Rna[c]</t>
@@ -28680,7 +28680,7 @@
       </c>
       <c r="I136" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
           <t>RL5P[c]</t>
@@ -28703,7 +28703,7 @@
       </c>
       <c r="I137" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein[c]</t>
@@ -28726,7 +28726,7 @@
       </c>
       <c r="I138" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna[c]</t>
@@ -28749,7 +28749,7 @@
       </c>
       <c r="I139" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
           <t>Rnase_Protein[c]</t>
@@ -28772,7 +28772,7 @@
       </c>
       <c r="I140" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
           <t>Rnase_Rna[c]</t>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="I141" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
           <t>Rpe_Protein[c]</t>
@@ -28818,7 +28818,7 @@
       </c>
       <c r="I142" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
           <t>Rpe_Rna[c]</t>
@@ -28841,7 +28841,7 @@
       </c>
       <c r="I143" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
           <t>S7P[c]</t>
@@ -28864,7 +28864,7 @@
       </c>
       <c r="I144" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="4" t="inlineStr">
         <is>
           <t>SER[c]</t>
@@ -28887,7 +28887,7 @@
       </c>
       <c r="I145" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
           <t>SerSer[c]</t>
@@ -28910,7 +28910,7 @@
       </c>
       <c r="I146" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
           <t>SerSer[e]</t>
@@ -28933,7 +28933,7 @@
       </c>
       <c r="I147" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
           <t>T3P1[c]</t>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="I148" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="4" t="inlineStr">
         <is>
           <t>T3P2[c]</t>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="I149" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="4" t="inlineStr">
         <is>
           <t>THR[c]</t>
@@ -29002,7 +29002,7 @@
       </c>
       <c r="I150" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
           <t>ThrThr[c]</t>
@@ -29025,7 +29025,7 @@
       </c>
       <c r="I151" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="4" t="inlineStr">
         <is>
           <t>ThrThr[e]</t>
@@ -29048,7 +29048,7 @@
       </c>
       <c r="I152" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
           <t>Tim_Protein[c]</t>
@@ -29071,7 +29071,7 @@
       </c>
       <c r="I153" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="4" t="inlineStr">
         <is>
           <t>Tim_Rna[c]</t>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="I154" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="4" t="inlineStr">
         <is>
           <t>TklB_Protein[c]</t>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="I155" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
           <t>TklB_Rna[c]</t>
@@ -29140,7 +29140,7 @@
       </c>
       <c r="I156" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
           <t>TRP[c]</t>
@@ -29163,7 +29163,7 @@
       </c>
       <c r="I157" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
           <t>TrpTrp[c]</t>
@@ -29186,7 +29186,7 @@
       </c>
       <c r="I158" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="4" t="inlineStr">
         <is>
           <t>TrpTrp[e]</t>
@@ -29209,7 +29209,7 @@
       </c>
       <c r="I159" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="4" t="inlineStr">
         <is>
           <t>TYR[c]</t>
@@ -29232,7 +29232,7 @@
       </c>
       <c r="I160" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="4" t="inlineStr">
         <is>
           <t>TyrTyr[c]</t>
@@ -29255,7 +29255,7 @@
       </c>
       <c r="I161" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="4" t="inlineStr">
         <is>
           <t>TyrTyr[e]</t>
@@ -29278,7 +29278,7 @@
       </c>
       <c r="I162" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="4" t="inlineStr">
         <is>
           <t>Udk_Protein[c]</t>
@@ -29301,7 +29301,7 @@
       </c>
       <c r="I163" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="4" t="inlineStr">
         <is>
           <t>Udk_Rna[c]</t>
@@ -29324,7 +29324,7 @@
       </c>
       <c r="I164" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="4" t="inlineStr">
         <is>
           <t>UDP[c]</t>
@@ -29347,7 +29347,7 @@
       </c>
       <c r="I165" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="4" t="inlineStr">
         <is>
           <t>UMP[c]</t>
@@ -29370,7 +29370,7 @@
       </c>
       <c r="I166" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
           <t>Upp_Protein[c]</t>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="I167" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="4" t="inlineStr">
         <is>
           <t>Upp_Rna[c]</t>
@@ -29416,7 +29416,7 @@
       </c>
       <c r="I168" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="4" t="inlineStr">
         <is>
           <t>URA[c]</t>
@@ -29439,7 +29439,7 @@
       </c>
       <c r="I169" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="170">
+    <row r="170" ht="15.1" customHeight="1">
       <c r="A170" s="4" t="inlineStr">
         <is>
           <t>URA[e]</t>
@@ -29462,7 +29462,7 @@
       </c>
       <c r="I170" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="171">
+    <row r="171" ht="15.1" customHeight="1">
       <c r="A171" s="4" t="inlineStr">
         <is>
           <t>URI[c]</t>
@@ -29485,7 +29485,7 @@
       </c>
       <c r="I171" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="172">
+    <row r="172" ht="15.1" customHeight="1">
       <c r="A172" s="4" t="inlineStr">
         <is>
           <t>UTP[c]</t>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="I172" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="173">
+    <row r="173" ht="15.1" customHeight="1">
       <c r="A173" s="4" t="inlineStr">
         <is>
           <t>UTP[e]</t>
@@ -29531,7 +29531,7 @@
       </c>
       <c r="I173" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="174">
+    <row r="174" ht="15.1" customHeight="1">
       <c r="A174" s="4" t="inlineStr">
         <is>
           <t>VAL[c]</t>
@@ -29554,7 +29554,7 @@
       </c>
       <c r="I174" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="175">
+    <row r="175" ht="15.1" customHeight="1">
       <c r="A175" s="4" t="inlineStr">
         <is>
           <t>ValVal[c]</t>
@@ -29577,7 +29577,7 @@
       </c>
       <c r="I175" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="176">
+    <row r="176" ht="15.1" customHeight="1">
       <c r="A176" s="4" t="inlineStr">
         <is>
           <t>ValVal[e]</t>
@@ -29600,7 +29600,7 @@
       </c>
       <c r="I176" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="177">
+    <row r="177" ht="15.1" customHeight="1">
       <c r="A177" s="4" t="inlineStr">
         <is>
           <t>X5P[c]</t>
@@ -29624,8 +29624,8 @@
       <c r="I177" s="27" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -29646,27 +29646,27 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1:L2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="36.875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="4" width="31.1666666666667"/>
-    <col customWidth="1" max="4" min="4" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="5" style="4" width="12.625"/>
-    <col customWidth="1" max="1026" min="7" style="4" width="8.78333333333333"/>
+    <col width="36.875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="2" max="2"/>
+    <col width="31.1666666666667" customWidth="1" style="4" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="4" min="5" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="7" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Date' Id='InitialSpeciesConcentration'</t>
+          <t>!!ObjTables type='Date' id='InitialSpeciesConcentration'</t>
         </is>
       </c>
     </row>
@@ -34227,7 +34227,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C2:L127"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/migrate/example-wc_lang-model.xlsx
+++ b/tests/fixtures/migrate/example-wc_lang-model.xlsx
@@ -1806,7 +1806,7 @@
     <row r="1" ht="81" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Observable'</t>
+          <t>!!ObjTables type='Date' class='Observable'</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
     <row r="1" ht="81" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Function'</t>
+          <t>!!ObjTables type='Date' class='Function'</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Reaction'</t>
+          <t>!!ObjTables type='Date' class='Reaction'</t>
         </is>
       </c>
     </row>
@@ -8914,7 +8914,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='RateLaw'</t>
+          <t>!!ObjTables type='Date' class='RateLaw'</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjective'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjective'</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjReaction'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjReaction'</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='DfbaObjSpecies'</t>
+          <t>!!ObjTables type='Date' class='DfbaObjSpecies'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14999,7 +14999,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Parameter'</t>
+          <t>!!ObjTables type='Date' class='Parameter'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17545,7 +17545,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='StopCondition'</t>
+          <t>!!ObjTables type='Date' class='StopCondition'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17686,7 +17686,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Observation'</t>
+          <t>!!ObjTables type='Date' class='Observation'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18169,7 +18169,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Model'</t>
+          <t>!!ObjTables type='Date' class='Model'</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='ObservationSet'</t>
+          <t>!!ObjTables type='Date' class='ObservationSet'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18478,7 +18478,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Conclusion'</t>
+          <t>!!ObjTables type='Date' class='Conclusion'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18716,7 +18716,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Reference'</t>
+          <t>!!ObjTables type='Date' class='Reference'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -19950,7 +19950,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Author'</t>
+          <t>!!ObjTables type='Date' class='Author'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20056,7 +20056,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Change'</t>
+          <t>!!ObjTables type='Date' class='Change'</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20193,7 +20193,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Taxon'</t>
+          <t>!!ObjTables type='Date' class='Taxon'</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20286,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Environment'</t>
+          <t>!!ObjTables type='Date' class='Environment'</t>
         </is>
       </c>
     </row>
@@ -20385,7 +20385,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Submodel'</t>
+          <t>!!ObjTables type='Date' class='Submodel'</t>
         </is>
       </c>
     </row>
@@ -20562,7 +20562,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Compartment'</t>
+          <t>!!ObjTables type='Date' class='Compartment'</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='SpeciesType'</t>
+          <t>!!ObjTables type='Date' class='SpeciesType'</t>
         </is>
       </c>
     </row>
@@ -25542,7 +25542,7 @@
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='Species'</t>
+          <t>!!ObjTables type='Date' class='Species'</t>
         </is>
       </c>
     </row>
@@ -29666,7 +29666,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Date' id='InitialSpeciesConcentration'</t>
+          <t>!!ObjTables type='Date' class='InitialSpeciesConcentration'</t>
         </is>
       </c>
     </row>
